--- a/Surveys/06_17_2023_Tracer_Survey.xlsx
+++ b/Surveys/06_17_2023_Tracer_Survey.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\RFID_tracers\Surveys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tacob\Documents\GitHub\RFID_tracers\Surveys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCE3867-97AF-4D13-BDA4-ADFD92CD7106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F002438-9A49-4727-8FB0-F98906617581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{69298AC6-6E72-4BA9-9E2C-E826529E513B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{69298AC6-6E72-4BA9-9E2C-E826529E513B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="29">
   <si>
     <t>Distance from reference point</t>
   </si>
@@ -108,6 +108,21 @@
   </si>
   <si>
     <t>Composite Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicole Revisit. </t>
+  </si>
+  <si>
+    <t>Indistinct Triangle.</t>
+  </si>
+  <si>
+    <t>Nicole Revisit.</t>
+  </si>
+  <si>
+    <t>No Distinct Triangle.</t>
+  </si>
+  <si>
+    <t>.0.083</t>
   </si>
 </sst>
 </file>
@@ -369,10 +384,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -389,24 +422,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -724,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0694FFA4-917A-4B6E-97D0-115474C635A2}">
   <dimension ref="A1:P150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" zoomScale="83" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M140" sqref="M140"/>
+    <sheetView tabSelected="1" topLeftCell="B112" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E152" sqref="E152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -734,41 +749,41 @@
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
     <col min="3" max="3" width="12.5546875" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" customWidth="1"/>
-    <col min="6" max="7" width="14.88671875" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="16" max="16" width="17.44140625" customWidth="1"/>
+    <col min="5" max="6" width="14.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="15" max="15" width="17.44140625" customWidth="1"/>
+    <col min="16" max="16" width="34.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -783,40 +798,40 @@
       <c r="D2" s="13">
         <v>10</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="26" t="s">
+      <c r="E2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="G2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="H2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="I2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="J2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="K2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="L2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="M2" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="N2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="O2" s="17" t="s">
         <v>23</v>
       </c>
+      <c r="P2" s="14"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
@@ -831,13 +846,27 @@
       <c r="D3" s="5">
         <v>2.4900000000000002</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
+      <c r="E3" s="19">
+        <v>475295.1</v>
+      </c>
+      <c r="F3" s="19">
+        <v>539904.821</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="I3" s="14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="J3" s="14">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="K3" s="14">
+        <v>8.9999999999999993E-3</v>
+      </c>
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14"/>
@@ -857,13 +886,27 @@
       <c r="D4" s="5">
         <v>2.08</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
+      <c r="E4" s="19">
+        <v>475294.84899999999</v>
+      </c>
+      <c r="F4" s="19">
+        <v>539904.26399999997</v>
+      </c>
+      <c r="G4" s="14">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0.125</v>
+      </c>
+      <c r="J4" s="14">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="K4" s="14">
+        <v>6.8000000000000005E-2</v>
+      </c>
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
       <c r="N4" s="14"/>
@@ -883,9 +926,9 @@
       <c r="D5" s="5">
         <v>1.78</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
@@ -894,7 +937,9 @@
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
+      <c r="P5" s="14" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
@@ -909,18 +954,32 @@
       <c r="D6" s="5">
         <v>1.49</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
+      <c r="E6" s="19">
+        <v>475293.98100000003</v>
+      </c>
+      <c r="F6" s="19">
+        <v>539902.87199999997</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0.124</v>
+      </c>
+      <c r="H6" s="14">
+        <v>1.663</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0.377</v>
+      </c>
+      <c r="K6" s="14">
+        <v>0.46100000000000002</v>
+      </c>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
       <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
+      <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
@@ -935,13 +994,27 @@
       <c r="D7" s="5">
         <v>1.3599999999999999</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
+      <c r="E7" s="19">
+        <v>475293.73200000002</v>
+      </c>
+      <c r="F7" s="19">
+        <v>539903.48400000005</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="H7" s="14">
+        <v>2.601</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="J7" s="14">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="K7" s="14">
+        <v>0.622</v>
+      </c>
       <c r="L7" s="14"/>
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
@@ -961,13 +1034,27 @@
       <c r="D8" s="5">
         <v>2.25</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
+      <c r="E8" s="19">
+        <v>475294.71399999998</v>
+      </c>
+      <c r="F8" s="19">
+        <v>539903.41799999995</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="H8" s="14">
+        <v>2.14</v>
+      </c>
+      <c r="I8" s="14">
+        <v>0.64200000000000002</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="K8" s="14">
+        <v>0.49299999999999999</v>
+      </c>
       <c r="L8" s="14"/>
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
@@ -987,13 +1074,27 @@
       <c r="D9" s="5">
         <v>1.76</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
+      <c r="E9" s="19">
+        <v>475294.06099999999</v>
+      </c>
+      <c r="F9" s="19">
+        <v>539903.38800000004</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0.441</v>
+      </c>
+      <c r="H9" s="14">
+        <v>3.1030000000000002</v>
+      </c>
+      <c r="I9" s="14">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="K9" s="14">
+        <v>0.80200000000000005</v>
+      </c>
       <c r="L9" s="14"/>
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
@@ -1013,11 +1114,9 @@
       <c r="D10" s="13">
         <v>8</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
@@ -1026,7 +1125,9 @@
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
+      <c r="P10" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
@@ -1041,13 +1142,27 @@
       <c r="D11" s="5">
         <v>1.43</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
+      <c r="E11" s="20">
+        <v>475292.40399999998</v>
+      </c>
+      <c r="F11" s="19">
+        <v>539901.92799999996</v>
+      </c>
+      <c r="G11" s="14">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="H11" s="14">
+        <v>3.9860000000000002</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="K11" s="14">
+        <v>1.3089999999999999</v>
+      </c>
       <c r="L11" s="14"/>
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
@@ -1061,9 +1176,9 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -1081,9 +1196,9 @@
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="14"/>
@@ -1107,13 +1222,27 @@
       <c r="D14" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
+      <c r="E14" s="19">
+        <v>475292.63400000002</v>
+      </c>
+      <c r="F14" s="19">
+        <v>539901.29599999997</v>
+      </c>
+      <c r="G14" s="14">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H14" s="14">
+        <v>1.6890000000000001</v>
+      </c>
+      <c r="I14" s="14">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="J14" s="14">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="K14" s="14">
+        <v>2.5999999999999999E-2</v>
+      </c>
       <c r="L14" s="14"/>
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
@@ -1127,9 +1256,9 @@
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="15"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="14"/>
@@ -1147,9 +1276,9 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="15"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
@@ -1158,7 +1287,7 @@
       <c r="M16" s="14"/>
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
+      <c r="P16" s="5"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
@@ -1173,13 +1302,27 @@
       <c r="D17" s="15">
         <v>1.76</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
+      <c r="E17" s="19">
+        <v>475292.05900000001</v>
+      </c>
+      <c r="F17" s="19">
+        <v>539901.66200000001</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="H17" s="14">
+        <v>3.1339999999999999</v>
+      </c>
+      <c r="I17" s="14">
+        <v>1.042</v>
+      </c>
+      <c r="J17" s="14">
+        <v>0.81</v>
+      </c>
+      <c r="K17" s="14">
+        <v>0.80200000000000005</v>
+      </c>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
       <c r="N17" s="14"/>
@@ -1193,9 +1336,9 @@
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="14"/>
@@ -1204,7 +1347,7 @@
       <c r="M18" s="14"/>
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
+      <c r="P18" s="5"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
@@ -1219,13 +1362,27 @@
       <c r="D19" s="5">
         <v>1.32</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
+      <c r="E19" s="19">
+        <v>475292.40100000001</v>
+      </c>
+      <c r="F19" s="19">
+        <v>539901.95200000005</v>
+      </c>
+      <c r="G19" s="14">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="H19" s="14">
+        <v>3.0510000000000002</v>
+      </c>
+      <c r="I19" s="14">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="J19" s="14">
+        <v>1.401</v>
+      </c>
+      <c r="K19" s="14">
+        <v>0.40899999999999997</v>
+      </c>
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
@@ -1245,9 +1402,9 @@
       <c r="D20" s="5">
         <v>4.4800000000000004</v>
       </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
@@ -1256,7 +1413,9 @@
       <c r="M20" s="14"/>
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
+      <c r="P20" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
@@ -1271,9 +1430,9 @@
       <c r="D21" s="5">
         <v>4.2700000000000005</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="14"/>
@@ -1282,7 +1441,9 @@
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
+      <c r="P21" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
@@ -1291,9 +1452,9 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="15"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="14"/>
@@ -1302,7 +1463,7 @@
       <c r="M22" s="14"/>
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
-      <c r="P22" s="14"/>
+      <c r="P22" s="5"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
@@ -1311,9 +1472,9 @@
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="15"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
@@ -1331,9 +1492,9 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
@@ -1351,9 +1512,9 @@
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
@@ -1371,9 +1532,9 @@
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
@@ -1397,13 +1558,27 @@
       <c r="D27" s="5">
         <v>1.31</v>
       </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
+      <c r="E27" s="19">
+        <v>475292.50699999998</v>
+      </c>
+      <c r="F27" s="19">
+        <v>539901.94799999997</v>
+      </c>
+      <c r="G27" s="14">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="H27" s="14">
+        <v>3.161</v>
+      </c>
+      <c r="I27" s="14">
+        <v>1.169</v>
+      </c>
+      <c r="J27" s="14">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="K27" s="14">
+        <v>0.47299999999999998</v>
+      </c>
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
       <c r="N27" s="14"/>
@@ -1417,9 +1592,9 @@
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
@@ -1437,9 +1612,9 @@
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
@@ -1463,13 +1638,27 @@
       <c r="D30" s="5">
         <v>0.6399999999999999</v>
       </c>
-      <c r="E30" s="14"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
+      <c r="E30" s="19">
+        <v>475292.64299999998</v>
+      </c>
+      <c r="F30" s="19">
+        <v>539901.62300000002</v>
+      </c>
+      <c r="G30" s="14">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H30" s="14">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="I30" s="14">
+        <v>0.32100000000000001</v>
+      </c>
+      <c r="J30" s="14">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="K30" s="14">
+        <v>0.14899999999999999</v>
+      </c>
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
       <c r="N30" s="14"/>
@@ -1483,9 +1672,9 @@
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
@@ -1509,13 +1698,27 @@
       <c r="D32" s="15">
         <v>1.39</v>
       </c>
-      <c r="E32" s="14"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
+      <c r="E32" s="19">
+        <v>475292.31599999999</v>
+      </c>
+      <c r="F32" s="19">
+        <v>539901.64099999995</v>
+      </c>
+      <c r="G32" s="14">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="H32" s="14">
+        <v>2.2080000000000002</v>
+      </c>
+      <c r="I32" s="14">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="J32" s="14">
+        <v>0.627</v>
+      </c>
+      <c r="K32" s="14">
+        <v>0.627</v>
+      </c>
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
       <c r="N32" s="14"/>
@@ -1529,9 +1732,9 @@
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
@@ -1540,7 +1743,7 @@
       <c r="M33" s="14"/>
       <c r="N33" s="14"/>
       <c r="O33" s="14"/>
-      <c r="P33" s="14"/>
+      <c r="P33" s="5"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
@@ -1549,9 +1752,9 @@
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
       <c r="D34" s="15"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
@@ -1569,9 +1772,9 @@
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
       <c r="D35" s="15"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
       <c r="J35" s="14"/>
@@ -1595,9 +1798,9 @@
       <c r="D36" s="5">
         <v>2.7600000000000002</v>
       </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
       <c r="J36" s="14"/>
@@ -1606,7 +1809,9 @@
       <c r="M36" s="14"/>
       <c r="N36" s="14"/>
       <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
+      <c r="P36" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
@@ -1615,9 +1820,9 @@
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
@@ -1641,13 +1846,27 @@
       <c r="D38" s="5">
         <v>1.3599999999999999</v>
       </c>
-      <c r="E38" s="14"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
+      <c r="E38" s="19">
+        <v>475292.02500000002</v>
+      </c>
+      <c r="F38" s="19">
+        <v>539901.64</v>
+      </c>
+      <c r="G38" s="14">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="H38" s="14">
+        <v>2.36</v>
+      </c>
+      <c r="I38" s="14">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="J38" s="14">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K38" s="14">
+        <v>0.68100000000000005</v>
+      </c>
       <c r="L38" s="14"/>
       <c r="M38" s="14"/>
       <c r="N38" s="14"/>
@@ -1661,9 +1880,9 @@
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
@@ -1681,9 +1900,9 @@
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
@@ -1701,9 +1920,9 @@
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
@@ -1721,9 +1940,9 @@
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
       <c r="J42" s="14"/>
@@ -1741,9 +1960,9 @@
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="14"/>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
@@ -1767,9 +1986,9 @@
       <c r="D44" s="5">
         <v>2.3000000000000003</v>
       </c>
-      <c r="E44" s="14"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="14"/>
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
       <c r="J44" s="14"/>
@@ -1778,7 +1997,9 @@
       <c r="M44" s="14"/>
       <c r="N44" s="14"/>
       <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
+      <c r="P44" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
@@ -1787,9 +2008,9 @@
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="14"/>
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
@@ -1807,9 +2028,9 @@
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="14"/>
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
       <c r="J46" s="14"/>
@@ -1827,9 +2048,9 @@
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="14"/>
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
       <c r="J47" s="14"/>
@@ -1847,9 +2068,9 @@
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="14"/>
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
       <c r="J48" s="14"/>
@@ -1867,9 +2088,9 @@
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="14"/>
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
       <c r="J49" s="14"/>
@@ -1893,9 +2114,9 @@
       <c r="D50" s="5">
         <v>4.25</v>
       </c>
-      <c r="E50" s="14"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="14"/>
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
       <c r="J50" s="14"/>
@@ -1904,18 +2125,20 @@
       <c r="M50" s="14"/>
       <c r="N50" s="14"/>
       <c r="O50" s="14"/>
-      <c r="P50" s="14"/>
+      <c r="P50" s="14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A51" s="17" t="s">
+      <c r="A51" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="14"/>
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
       <c r="J51" s="14"/>
@@ -1939,13 +2162,27 @@
       <c r="D52" s="5">
         <v>1.39</v>
       </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
+      <c r="E52" s="19">
+        <v>475292.08500000002</v>
+      </c>
+      <c r="F52" s="19">
+        <v>539901.48100000003</v>
+      </c>
+      <c r="G52" s="14">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="H52" s="14">
+        <v>3.3039999999999998</v>
+      </c>
+      <c r="I52" s="14">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="J52" s="14">
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="K52" s="14">
+        <v>0.872</v>
+      </c>
       <c r="L52" s="14"/>
       <c r="M52" s="14"/>
       <c r="N52" s="14"/>
@@ -1965,13 +2202,27 @@
       <c r="D53" s="15">
         <v>2.23</v>
       </c>
-      <c r="E53" s="14"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
+      <c r="E53" s="19">
+        <v>475291.90700000001</v>
+      </c>
+      <c r="F53" s="19">
+        <v>539901.37300000002</v>
+      </c>
+      <c r="G53" s="14">
+        <v>1.4530000000000001</v>
+      </c>
+      <c r="H53" s="14">
+        <v>5.8650000000000002</v>
+      </c>
+      <c r="I53" s="14">
+        <v>1.5369999999999999</v>
+      </c>
+      <c r="J53" s="14">
+        <v>1.1930000000000001</v>
+      </c>
+      <c r="K53" s="14">
+        <v>1.8919999999999999</v>
+      </c>
       <c r="L53" s="14"/>
       <c r="M53" s="14"/>
       <c r="N53" s="14"/>
@@ -1991,13 +2242,27 @@
       <c r="D54" s="15">
         <v>2.04</v>
       </c>
-      <c r="E54" s="14"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
+      <c r="E54" s="19">
+        <v>475291.57299999997</v>
+      </c>
+      <c r="F54" s="19">
+        <v>539901.68299999996</v>
+      </c>
+      <c r="G54" s="14">
+        <v>0.159</v>
+      </c>
+      <c r="H54" s="14">
+        <v>5.8879999999999999</v>
+      </c>
+      <c r="I54" s="14">
+        <v>2.5390000000000001</v>
+      </c>
+      <c r="J54" s="14">
+        <v>0.109</v>
+      </c>
+      <c r="K54" s="14">
+        <v>0.111</v>
+      </c>
       <c r="L54" s="14"/>
       <c r="M54" s="14"/>
       <c r="N54" s="14"/>
@@ -2017,13 +2282,27 @@
       <c r="D55" s="5">
         <v>2.23</v>
       </c>
-      <c r="E55" s="14"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
+      <c r="E55" s="19">
+        <v>475291.63400000002</v>
+      </c>
+      <c r="F55" s="19">
+        <v>539901.46100000001</v>
+      </c>
+      <c r="G55" s="14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H55" s="14">
+        <v>7.45</v>
+      </c>
+      <c r="I55" s="14">
+        <v>3.48</v>
+      </c>
+      <c r="J55" s="14">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="K55" s="14">
+        <v>7.5999999999999998E-2</v>
+      </c>
       <c r="L55" s="14"/>
       <c r="M55" s="14"/>
       <c r="N55" s="14"/>
@@ -2043,13 +2322,27 @@
       <c r="D56" s="5">
         <v>1.45</v>
       </c>
-      <c r="E56" s="14"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
+      <c r="E56" s="19">
+        <v>475292.00699999998</v>
+      </c>
+      <c r="F56" s="19">
+        <v>539901.80299999996</v>
+      </c>
+      <c r="G56" s="14">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="H56" s="14">
+        <v>1.08</v>
+      </c>
+      <c r="I56" s="14">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="J56" s="14">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="K56" s="14">
+        <v>0.24399999999999999</v>
+      </c>
       <c r="L56" s="14"/>
       <c r="M56" s="14"/>
       <c r="N56" s="14"/>
@@ -2069,9 +2362,9 @@
       <c r="D57" s="5">
         <v>3.24</v>
       </c>
-      <c r="E57" s="14"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="14"/>
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
       <c r="J57" s="14"/>
@@ -2080,7 +2373,9 @@
       <c r="M57" s="14"/>
       <c r="N57" s="14"/>
       <c r="O57" s="14"/>
-      <c r="P57" s="14"/>
+      <c r="P57" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
@@ -2089,9 +2384,9 @@
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="15"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="14"/>
       <c r="H58" s="14"/>
       <c r="I58" s="14"/>
       <c r="J58" s="14"/>
@@ -2109,9 +2404,9 @@
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="15"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="14"/>
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
       <c r="J59" s="14"/>
@@ -2135,13 +2430,27 @@
       <c r="D60" s="15">
         <v>1.28</v>
       </c>
-      <c r="E60" s="14"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
+      <c r="E60" s="19">
+        <v>539901.80299999996</v>
+      </c>
+      <c r="F60" s="19">
+        <v>539901.80299999996</v>
+      </c>
+      <c r="G60" s="14">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="H60" s="14">
+        <v>1.08</v>
+      </c>
+      <c r="I60" s="14">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="J60" s="14">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="K60" s="14">
+        <v>0.31900000000000001</v>
+      </c>
       <c r="L60" s="14"/>
       <c r="M60" s="14"/>
       <c r="N60" s="14"/>
@@ -2155,9 +2464,9 @@
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="14"/>
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
       <c r="J61" s="14"/>
@@ -2166,7 +2475,7 @@
       <c r="M61" s="14"/>
       <c r="N61" s="14"/>
       <c r="O61" s="14"/>
-      <c r="P61" s="14"/>
+      <c r="P61" s="5"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
@@ -2181,9 +2490,9 @@
       <c r="D62" s="5">
         <v>2.4900000000000002</v>
       </c>
-      <c r="E62" s="5"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="19"/>
+      <c r="G62" s="14"/>
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
       <c r="J62" s="14"/>
@@ -2192,7 +2501,9 @@
       <c r="M62" s="14"/>
       <c r="N62" s="14"/>
       <c r="O62" s="14"/>
-      <c r="P62" s="14"/>
+      <c r="P62" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
@@ -2207,9 +2518,9 @@
       <c r="D63" s="5">
         <v>2.1900000000000004</v>
       </c>
-      <c r="E63" s="5"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="19"/>
+      <c r="G63" s="14"/>
       <c r="H63" s="14"/>
       <c r="I63" s="14"/>
       <c r="J63" s="14"/>
@@ -2218,7 +2529,9 @@
       <c r="M63" s="14"/>
       <c r="N63" s="14"/>
       <c r="O63" s="14"/>
-      <c r="P63" s="14"/>
+      <c r="P63" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
@@ -2227,9 +2540,9 @@
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="14"/>
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
       <c r="J64" s="14"/>
@@ -2238,37 +2551,37 @@
       <c r="M64" s="14"/>
       <c r="N64" s="14"/>
       <c r="O64" s="14"/>
-      <c r="P64" s="14"/>
+      <c r="P64" s="5"/>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C66" s="19"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="2" t="s">
+      <c r="C66" s="25"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="21"/>
+      <c r="G66" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" s="21"/>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="M66" s="21"/>
+      <c r="N66" s="21"/>
+      <c r="O66" s="21"/>
+      <c r="P66" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F66" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" s="25"/>
-      <c r="H66" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I66" s="25"/>
-      <c r="J66" s="25"/>
-      <c r="K66" s="25"/>
-      <c r="L66" s="25"/>
-      <c r="M66" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="N66" s="25"/>
-      <c r="O66" s="25"/>
-      <c r="P66" s="25"/>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
@@ -2283,40 +2596,40 @@
       <c r="D67" s="2">
         <v>15</v>
       </c>
-      <c r="E67" s="14"/>
-      <c r="F67" s="26" t="s">
+      <c r="E67" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G67" s="26" t="s">
+      <c r="F67" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H67" s="27" t="s">
+      <c r="G67" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I67" s="27" t="s">
+      <c r="H67" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="J67" s="27" t="s">
+      <c r="I67" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="K67" s="27" t="s">
+      <c r="J67" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="L67" s="27" t="s">
+      <c r="K67" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="M67" s="27" t="s">
+      <c r="L67" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N67" s="27" t="s">
+      <c r="M67" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="O67" s="27" t="s">
+      <c r="N67" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="P67" s="27" t="s">
+      <c r="O67" s="17" t="s">
         <v>23</v>
       </c>
+      <c r="P67" s="14"/>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
@@ -2325,9 +2638,9 @@
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="14"/>
       <c r="H68" s="14"/>
       <c r="I68" s="14"/>
       <c r="J68" s="14"/>
@@ -2345,9 +2658,9 @@
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="14"/>
       <c r="H69" s="14"/>
       <c r="I69" s="14"/>
       <c r="J69" s="14"/>
@@ -2356,7 +2669,7 @@
       <c r="M69" s="14"/>
       <c r="N69" s="14"/>
       <c r="O69" s="14"/>
-      <c r="P69" s="14"/>
+      <c r="P69" s="5"/>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
@@ -2371,13 +2684,27 @@
       <c r="D70" s="5">
         <v>3.0500000000000003</v>
       </c>
-      <c r="E70" s="14"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
+      <c r="E70" s="19">
+        <v>475232.75799999997</v>
+      </c>
+      <c r="F70" s="19">
+        <v>539954.53599999996</v>
+      </c>
+      <c r="G70" s="14">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H70" s="14">
+        <v>1.294</v>
+      </c>
+      <c r="I70" s="14">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="J70" s="14">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="K70" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="L70" s="14"/>
       <c r="M70" s="14"/>
       <c r="N70" s="14"/>
@@ -2397,13 +2724,27 @@
       <c r="D71" s="5">
         <v>2.2600000000000002</v>
       </c>
-      <c r="E71" s="14"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="14"/>
+      <c r="E71" s="19">
+        <v>475232</v>
+      </c>
+      <c r="F71" s="19">
+        <v>539953.94200000004</v>
+      </c>
+      <c r="G71" s="14">
+        <v>0.249</v>
+      </c>
+      <c r="H71" s="14">
+        <v>2.3580000000000001</v>
+      </c>
+      <c r="I71" s="14">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="J71" s="14">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="K71" s="14">
+        <v>0.81</v>
+      </c>
       <c r="L71" s="14"/>
       <c r="M71" s="14"/>
       <c r="N71" s="14"/>
@@ -2423,13 +2764,27 @@
       <c r="D72" s="5">
         <v>1.86</v>
       </c>
-      <c r="E72" s="14"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
+      <c r="E72" s="19">
+        <v>475232.17</v>
+      </c>
+      <c r="F72" s="19">
+        <v>539953.50699999998</v>
+      </c>
+      <c r="G72" s="14">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="H72" s="14">
+        <v>2.024</v>
+      </c>
+      <c r="I72" s="14">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="J72" s="14">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="K72" s="14">
+        <v>0.56499999999999995</v>
+      </c>
       <c r="L72" s="14"/>
       <c r="M72" s="14"/>
       <c r="N72" s="14"/>
@@ -2443,9 +2798,9 @@
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="14"/>
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
       <c r="J73" s="14"/>
@@ -2469,13 +2824,27 @@
       <c r="D74" s="5">
         <v>2.71</v>
       </c>
-      <c r="E74" s="14"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="14"/>
+      <c r="E74" s="19">
+        <v>475232.18300000002</v>
+      </c>
+      <c r="F74" s="19">
+        <v>539954.44299999997</v>
+      </c>
+      <c r="G74" s="14">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="H74" s="14">
+        <v>1.165</v>
+      </c>
+      <c r="I74" s="14">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="J74" s="14">
+        <v>0.246</v>
+      </c>
+      <c r="K74" s="14">
+        <v>0.25800000000000001</v>
+      </c>
       <c r="L74" s="14"/>
       <c r="M74" s="14"/>
       <c r="N74" s="14"/>
@@ -2495,13 +2864,27 @@
       <c r="D75" s="5">
         <v>3.21</v>
       </c>
-      <c r="E75" s="14"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="14"/>
-      <c r="K75" s="14"/>
+      <c r="E75" s="19">
+        <v>475233.15100000001</v>
+      </c>
+      <c r="F75" s="19">
+        <v>539954.48199999996</v>
+      </c>
+      <c r="G75" s="14">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="H75" s="14">
+        <v>1.417</v>
+      </c>
+      <c r="I75" s="14">
+        <v>0.627</v>
+      </c>
+      <c r="J75" s="14">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="K75" s="14">
+        <v>7.5999999999999998E-2</v>
+      </c>
       <c r="L75" s="14"/>
       <c r="M75" s="14"/>
       <c r="N75" s="14"/>
@@ -2515,9 +2898,9 @@
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="29"/>
-      <c r="G76" s="28"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="14"/>
       <c r="H76" s="14"/>
       <c r="I76" s="14"/>
       <c r="J76" s="14"/>
@@ -2535,9 +2918,9 @@
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="14"/>
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
       <c r="J77" s="14"/>
@@ -2561,13 +2944,27 @@
       <c r="D78" s="5">
         <v>1.22</v>
       </c>
-      <c r="E78" s="14"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="14"/>
-      <c r="K78" s="14"/>
+      <c r="E78" s="19">
+        <v>475231.89199999999</v>
+      </c>
+      <c r="F78" s="19">
+        <v>539952.80799999996</v>
+      </c>
+      <c r="G78" s="14">
+        <v>0.245</v>
+      </c>
+      <c r="H78" s="14">
+        <v>2.6909999999999998</v>
+      </c>
+      <c r="I78" s="14">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="J78" s="14">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="K78" s="14">
+        <v>0.39900000000000002</v>
+      </c>
       <c r="L78" s="14"/>
       <c r="M78" s="14"/>
       <c r="N78" s="14"/>
@@ -2581,9 +2978,9 @@
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="14"/>
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
       <c r="J79" s="14"/>
@@ -2607,13 +3004,27 @@
       <c r="D80" s="5">
         <v>3.1300000000000003</v>
       </c>
-      <c r="E80" s="14"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="14"/>
-      <c r="K80" s="14"/>
+      <c r="E80" s="19">
+        <v>475233.109</v>
+      </c>
+      <c r="F80" s="19">
+        <v>539954.42799999996</v>
+      </c>
+      <c r="G80" s="14">
+        <v>4.7E-2</v>
+      </c>
+      <c r="H80" s="14">
+        <v>1.4330000000000001</v>
+      </c>
+      <c r="I80" s="14">
+        <v>0.59</v>
+      </c>
+      <c r="J80" s="14">
+        <v>0.154</v>
+      </c>
+      <c r="K80" s="14">
+        <v>0.14099999999999999</v>
+      </c>
       <c r="L80" s="14"/>
       <c r="M80" s="14"/>
       <c r="N80" s="14"/>
@@ -2633,18 +3044,32 @@
       <c r="D81" s="5">
         <v>3.0700000000000003</v>
       </c>
-      <c r="E81" s="5"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="14"/>
-      <c r="K81" s="14"/>
+      <c r="E81" s="19">
+        <v>475232.24099999998</v>
+      </c>
+      <c r="F81" s="19">
+        <v>539954.71799999999</v>
+      </c>
+      <c r="G81" s="14">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H81" s="14">
+        <v>1.3879999999999999</v>
+      </c>
+      <c r="I81" s="14">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="J81" s="14">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="K81" s="14">
+        <v>3.4000000000000002E-2</v>
+      </c>
       <c r="L81" s="14"/>
       <c r="M81" s="14"/>
       <c r="N81" s="14"/>
       <c r="O81" s="14"/>
-      <c r="P81" s="14"/>
+      <c r="P81" s="5"/>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
@@ -2653,9 +3078,9 @@
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="28"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="14"/>
       <c r="H82" s="14"/>
       <c r="I82" s="14"/>
       <c r="J82" s="14"/>
@@ -2673,9 +3098,9 @@
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="14"/>
       <c r="H83" s="14"/>
       <c r="I83" s="14"/>
       <c r="J83" s="14"/>
@@ -2693,9 +3118,9 @@
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="28"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="14"/>
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
       <c r="J84" s="14"/>
@@ -2713,9 +3138,9 @@
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="14"/>
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
       <c r="J85" s="14"/>
@@ -2733,9 +3158,9 @@
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="14"/>
       <c r="H86" s="14"/>
       <c r="I86" s="14"/>
       <c r="J86" s="14"/>
@@ -2747,17 +3172,15 @@
       <c r="P86" s="14"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A87" s="17" t="s">
+      <c r="A87" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B87" s="17"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F87" s="28"/>
-      <c r="G87" s="28"/>
+      <c r="B87" s="24"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="14"/>
       <c r="H87" s="14"/>
       <c r="I87" s="14"/>
       <c r="J87" s="14"/>
@@ -2766,7 +3189,9 @@
       <c r="M87" s="14"/>
       <c r="N87" s="14"/>
       <c r="O87" s="14"/>
-      <c r="P87" s="14"/>
+      <c r="P87" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" s="7">
@@ -2781,18 +3206,32 @@
       <c r="D88" s="15">
         <v>1.66</v>
       </c>
-      <c r="E88" s="5"/>
-      <c r="F88" s="28"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="14"/>
-      <c r="J88" s="14"/>
-      <c r="K88" s="14"/>
+      <c r="E88" s="19">
+        <v>475231.80800000002</v>
+      </c>
+      <c r="F88" s="19">
+        <v>539953.19400000002</v>
+      </c>
+      <c r="G88" s="14">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="H88" s="14">
+        <v>3.601</v>
+      </c>
+      <c r="I88" s="14">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="J88" s="14">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="K88" s="14">
+        <v>1.1659999999999999</v>
+      </c>
       <c r="L88" s="14"/>
       <c r="M88" s="14"/>
       <c r="N88" s="14"/>
       <c r="O88" s="14"/>
-      <c r="P88" s="14"/>
+      <c r="P88" s="5"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
@@ -2807,18 +3246,32 @@
       <c r="D89" s="5">
         <v>1.5899999999999999</v>
       </c>
-      <c r="E89" s="5"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="14"/>
-      <c r="J89" s="14"/>
-      <c r="K89" s="14"/>
+      <c r="E89" s="19">
+        <v>475231.83799999999</v>
+      </c>
+      <c r="F89" s="19">
+        <v>539953.22699999996</v>
+      </c>
+      <c r="G89" s="14">
+        <v>0.30299999999999999</v>
+      </c>
+      <c r="H89" s="14">
+        <v>2.8839999999999999</v>
+      </c>
+      <c r="I89" s="14">
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="J89" s="14">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="K89" s="14">
+        <v>0.47499999999999998</v>
+      </c>
       <c r="L89" s="14"/>
       <c r="M89" s="14"/>
       <c r="N89" s="14"/>
       <c r="O89" s="14"/>
-      <c r="P89" s="14"/>
+      <c r="P89" s="5"/>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
@@ -2833,18 +3286,32 @@
       <c r="D90" s="5">
         <v>1.54</v>
       </c>
-      <c r="E90" s="5"/>
-      <c r="F90" s="28"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
-      <c r="J90" s="14"/>
-      <c r="K90" s="14"/>
+      <c r="E90" s="19">
+        <v>475231.84499999997</v>
+      </c>
+      <c r="F90" s="19">
+        <v>539953.17299999995</v>
+      </c>
+      <c r="G90" s="14">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="H90" s="14">
+        <v>2.851</v>
+      </c>
+      <c r="I90" s="14">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="J90" s="14">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="K90" s="14">
+        <v>0.46600000000000003</v>
+      </c>
       <c r="L90" s="14"/>
       <c r="M90" s="14"/>
       <c r="N90" s="14"/>
       <c r="O90" s="14"/>
-      <c r="P90" s="14"/>
+      <c r="P90" s="5"/>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
@@ -2859,18 +3326,32 @@
       <c r="D91" s="5">
         <v>1.28</v>
       </c>
-      <c r="E91" s="5"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
-      <c r="J91" s="14"/>
-      <c r="K91" s="14"/>
+      <c r="E91" s="19">
+        <v>475231.90600000002</v>
+      </c>
+      <c r="F91" s="19">
+        <v>539952.91599999997</v>
+      </c>
+      <c r="G91" s="14">
+        <v>0.21</v>
+      </c>
+      <c r="H91" s="14">
+        <v>2.46</v>
+      </c>
+      <c r="I91" s="14">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="J91" s="14">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="K91" s="14">
+        <v>0.377</v>
+      </c>
       <c r="L91" s="14"/>
       <c r="M91" s="14"/>
       <c r="N91" s="14"/>
       <c r="O91" s="14"/>
-      <c r="P91" s="14"/>
+      <c r="P91" s="5"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="8">
@@ -2879,9 +3360,9 @@
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="15"/>
-      <c r="E92" s="5"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="28"/>
+      <c r="E92" s="19"/>
+      <c r="F92" s="19"/>
+      <c r="G92" s="14"/>
       <c r="H92" s="14"/>
       <c r="I92" s="14"/>
       <c r="J92" s="14"/>
@@ -2890,7 +3371,7 @@
       <c r="M92" s="14"/>
       <c r="N92" s="14"/>
       <c r="O92" s="14"/>
-      <c r="P92" s="14"/>
+      <c r="P92" s="5"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" s="8">
@@ -2905,18 +3386,32 @@
       <c r="D93" s="5">
         <v>1.5</v>
       </c>
-      <c r="E93" s="5"/>
-      <c r="F93" s="28"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="14"/>
-      <c r="J93" s="14"/>
-      <c r="K93" s="14"/>
+      <c r="E93" s="19">
+        <v>475231.57400000002</v>
+      </c>
+      <c r="F93" s="19">
+        <v>539952.98800000001</v>
+      </c>
+      <c r="G93" s="14">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="H93" s="14">
+        <v>4.056</v>
+      </c>
+      <c r="I93" s="14">
+        <v>1.4419999999999999</v>
+      </c>
+      <c r="J93" s="14">
+        <v>0.496</v>
+      </c>
+      <c r="K93" s="14">
+        <v>0.62</v>
+      </c>
       <c r="L93" s="14"/>
       <c r="M93" s="14"/>
       <c r="N93" s="14"/>
       <c r="O93" s="14"/>
-      <c r="P93" s="14"/>
+      <c r="P93" s="5"/>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" s="8">
@@ -2931,18 +3426,32 @@
       <c r="D94" s="5">
         <v>2.0100000000000002</v>
       </c>
-      <c r="E94" s="5"/>
-      <c r="F94" s="28"/>
-      <c r="G94" s="28"/>
-      <c r="H94" s="14"/>
-      <c r="I94" s="14"/>
-      <c r="J94" s="14"/>
-      <c r="K94" s="14"/>
+      <c r="E94" s="19">
+        <v>475231.80300000001</v>
+      </c>
+      <c r="F94" s="19">
+        <v>539953.66700000002</v>
+      </c>
+      <c r="G94" s="14">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="H94" s="14">
+        <v>3.0819999999999999</v>
+      </c>
+      <c r="I94" s="14">
+        <v>1.1419999999999999</v>
+      </c>
+      <c r="J94" s="14">
+        <v>0.626</v>
+      </c>
+      <c r="K94" s="14">
+        <v>0.54400000000000004</v>
+      </c>
       <c r="L94" s="14"/>
       <c r="M94" s="14"/>
       <c r="N94" s="14"/>
       <c r="O94" s="14"/>
-      <c r="P94" s="14"/>
+      <c r="P94" s="5"/>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" s="8">
@@ -2957,18 +3466,32 @@
       <c r="D95" s="5">
         <v>1.8299999999999998</v>
       </c>
-      <c r="E95" s="5"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="14"/>
-      <c r="J95" s="14"/>
-      <c r="K95" s="14"/>
+      <c r="E95" s="19">
+        <v>475231.72100000002</v>
+      </c>
+      <c r="F95" s="19">
+        <v>539953.42599999998</v>
+      </c>
+      <c r="G95" s="14">
+        <v>0.441</v>
+      </c>
+      <c r="H95" s="14">
+        <v>3.577</v>
+      </c>
+      <c r="I95" s="14">
+        <v>1.3140000000000001</v>
+      </c>
+      <c r="J95" s="14">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="K95" s="14">
+        <v>0.66400000000000003</v>
+      </c>
       <c r="L95" s="14"/>
       <c r="M95" s="14"/>
       <c r="N95" s="14"/>
       <c r="O95" s="14"/>
-      <c r="P95" s="14"/>
+      <c r="P95" s="5"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
@@ -2977,9 +3500,9 @@
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="28"/>
-      <c r="G96" s="28"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="19"/>
+      <c r="G96" s="14"/>
       <c r="H96" s="14"/>
       <c r="I96" s="14"/>
       <c r="J96" s="14"/>
@@ -2988,7 +3511,7 @@
       <c r="M96" s="14"/>
       <c r="N96" s="14"/>
       <c r="O96" s="14"/>
-      <c r="P96" s="14"/>
+      <c r="P96" s="5"/>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
@@ -2997,9 +3520,9 @@
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="28"/>
-      <c r="G97" s="28"/>
+      <c r="E97" s="19"/>
+      <c r="F97" s="19"/>
+      <c r="G97" s="14"/>
       <c r="H97" s="14"/>
       <c r="I97" s="14"/>
       <c r="J97" s="14"/>
@@ -3008,7 +3531,7 @@
       <c r="M97" s="14"/>
       <c r="N97" s="14"/>
       <c r="O97" s="14"/>
-      <c r="P97" s="14"/>
+      <c r="P97" s="5"/>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" s="6">
@@ -3017,9 +3540,9 @@
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="19"/>
+      <c r="G98" s="14"/>
       <c r="H98" s="14"/>
       <c r="I98" s="14"/>
       <c r="J98" s="14"/>
@@ -3028,7 +3551,7 @@
       <c r="M98" s="14"/>
       <c r="N98" s="14"/>
       <c r="O98" s="14"/>
-      <c r="P98" s="14"/>
+      <c r="P98" s="5"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
@@ -3043,18 +3566,32 @@
       <c r="D99" s="5">
         <v>1.65</v>
       </c>
-      <c r="E99" s="5"/>
-      <c r="F99" s="28"/>
-      <c r="G99" s="28"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="14"/>
-      <c r="J99" s="14"/>
-      <c r="K99" s="14"/>
+      <c r="E99" s="19">
+        <v>475231.57500000001</v>
+      </c>
+      <c r="F99" s="19">
+        <v>539953.18900000001</v>
+      </c>
+      <c r="G99" s="14">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="H99" s="14">
+        <v>4.0090000000000003</v>
+      </c>
+      <c r="I99" s="14">
+        <v>1.508</v>
+      </c>
+      <c r="J99" s="14">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="K99" s="14">
+        <v>0.499</v>
+      </c>
       <c r="L99" s="14"/>
       <c r="M99" s="14"/>
       <c r="N99" s="14"/>
       <c r="O99" s="14"/>
-      <c r="P99" s="14"/>
+      <c r="P99" s="5"/>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" s="6">
@@ -3063,9 +3600,9 @@
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="28"/>
-      <c r="G100" s="28"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="19"/>
+      <c r="G100" s="14"/>
       <c r="H100" s="14"/>
       <c r="I100" s="14"/>
       <c r="J100" s="14"/>
@@ -3074,7 +3611,7 @@
       <c r="M100" s="14"/>
       <c r="N100" s="14"/>
       <c r="O100" s="14"/>
-      <c r="P100" s="14"/>
+      <c r="P100" s="5"/>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" s="6">
@@ -3089,18 +3626,32 @@
       <c r="D101" s="5">
         <v>1.6099999999999999</v>
       </c>
-      <c r="E101" s="5"/>
-      <c r="F101" s="28"/>
-      <c r="G101" s="28"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
-      <c r="J101" s="14"/>
-      <c r="K101" s="14"/>
+      <c r="E101" s="19">
+        <v>475231.71</v>
+      </c>
+      <c r="F101" s="19">
+        <v>539953.19299999997</v>
+      </c>
+      <c r="G101" s="14">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="H101" s="14">
+        <v>3.4940000000000002</v>
+      </c>
+      <c r="I101" s="14">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="J101" s="14">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="K101" s="14">
+        <v>1.2130000000000001</v>
+      </c>
       <c r="L101" s="14"/>
       <c r="M101" s="14"/>
       <c r="N101" s="14"/>
       <c r="O101" s="14"/>
-      <c r="P101" s="14"/>
+      <c r="P101" s="5"/>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" s="6">
@@ -3109,9 +3660,9 @@
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="28"/>
-      <c r="G102" s="28"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="19"/>
+      <c r="G102" s="14"/>
       <c r="H102" s="14"/>
       <c r="I102" s="14"/>
       <c r="J102" s="14"/>
@@ -3120,37 +3671,37 @@
       <c r="M102" s="14"/>
       <c r="N102" s="14"/>
       <c r="O102" s="14"/>
-      <c r="P102" s="14"/>
+      <c r="P102" s="5"/>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B104" s="18" t="s">
+      <c r="B104" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C104" s="19"/>
-      <c r="D104" s="20"/>
-      <c r="E104" s="2" t="s">
+      <c r="C104" s="25"/>
+      <c r="D104" s="26"/>
+      <c r="E104" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104" s="21"/>
+      <c r="G104" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H104" s="21"/>
+      <c r="I104" s="21"/>
+      <c r="J104" s="21"/>
+      <c r="K104" s="21"/>
+      <c r="L104" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="M104" s="21"/>
+      <c r="N104" s="21"/>
+      <c r="O104" s="21"/>
+      <c r="P104" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F104" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="25"/>
-      <c r="H104" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I104" s="25"/>
-      <c r="J104" s="25"/>
-      <c r="K104" s="25"/>
-      <c r="L104" s="25"/>
-      <c r="M104" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="N104" s="25"/>
-      <c r="O104" s="25"/>
-      <c r="P104" s="25"/>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
@@ -3159,40 +3710,40 @@
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="26" t="s">
+      <c r="E105" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G105" s="26" t="s">
+      <c r="F105" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H105" s="27" t="s">
+      <c r="G105" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="I105" s="27" t="s">
+      <c r="H105" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="J105" s="27" t="s">
+      <c r="I105" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="K105" s="27" t="s">
+      <c r="J105" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="L105" s="27" t="s">
+      <c r="K105" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="M105" s="27" t="s">
+      <c r="L105" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="N105" s="27" t="s">
+      <c r="M105" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="O105" s="27" t="s">
+      <c r="N105" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="P105" s="27" t="s">
+      <c r="O105" s="17" t="s">
         <v>23</v>
       </c>
+      <c r="P105" s="5"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
@@ -3201,9 +3752,9 @@
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="28"/>
-      <c r="G106" s="28"/>
+      <c r="E106" s="19"/>
+      <c r="F106" s="19"/>
+      <c r="G106" s="14"/>
       <c r="H106" s="14"/>
       <c r="I106" s="14"/>
       <c r="J106" s="14"/>
@@ -3221,9 +3772,9 @@
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="28"/>
-      <c r="G107" s="28"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="19"/>
+      <c r="G107" s="14"/>
       <c r="H107" s="14"/>
       <c r="I107" s="14"/>
       <c r="J107" s="14"/>
@@ -3241,9 +3792,9 @@
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="28"/>
-      <c r="G108" s="28"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="19"/>
+      <c r="G108" s="14"/>
       <c r="H108" s="14"/>
       <c r="I108" s="14"/>
       <c r="J108" s="14"/>
@@ -3267,13 +3818,27 @@
       <c r="D109" s="5">
         <v>2.77</v>
       </c>
-      <c r="E109" s="14"/>
-      <c r="F109" s="28"/>
-      <c r="G109" s="28"/>
-      <c r="H109" s="14"/>
-      <c r="I109" s="14"/>
-      <c r="J109" s="14"/>
-      <c r="K109" s="14"/>
+      <c r="E109" s="19">
+        <v>475232.484</v>
+      </c>
+      <c r="F109" s="19">
+        <v>539954.02800000005</v>
+      </c>
+      <c r="G109" s="14">
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="H109" s="14">
+        <v>4.2050000000000001</v>
+      </c>
+      <c r="I109" s="14">
+        <v>1.218</v>
+      </c>
+      <c r="J109" s="14">
+        <v>1.115</v>
+      </c>
+      <c r="K109" s="14">
+        <v>1.2829999999999999</v>
+      </c>
       <c r="L109" s="14"/>
       <c r="M109" s="14"/>
       <c r="N109" s="14"/>
@@ -3287,9 +3852,9 @@
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="28"/>
-      <c r="G110" s="28"/>
+      <c r="E110" s="19"/>
+      <c r="F110" s="19"/>
+      <c r="G110" s="14"/>
       <c r="H110" s="14"/>
       <c r="I110" s="14"/>
       <c r="J110" s="14"/>
@@ -3307,9 +3872,9 @@
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="28"/>
-      <c r="G111" s="28"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="19"/>
+      <c r="G111" s="14"/>
       <c r="H111" s="14"/>
       <c r="I111" s="14"/>
       <c r="J111" s="14"/>
@@ -3327,9 +3892,9 @@
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="28"/>
-      <c r="G112" s="28"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="19"/>
+      <c r="G112" s="14"/>
       <c r="H112" s="14"/>
       <c r="I112" s="14"/>
       <c r="J112" s="14"/>
@@ -3347,9 +3912,9 @@
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
+      <c r="E113" s="19"/>
+      <c r="F113" s="19"/>
+      <c r="G113" s="14"/>
       <c r="H113" s="14"/>
       <c r="I113" s="14"/>
       <c r="J113" s="14"/>
@@ -3367,9 +3932,9 @@
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="28"/>
-      <c r="G114" s="28"/>
+      <c r="E114" s="19"/>
+      <c r="F114" s="19"/>
+      <c r="G114" s="14"/>
       <c r="H114" s="14"/>
       <c r="I114" s="14"/>
       <c r="J114" s="14"/>
@@ -3387,9 +3952,9 @@
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="28"/>
-      <c r="G115" s="28"/>
+      <c r="E115" s="19"/>
+      <c r="F115" s="19"/>
+      <c r="G115" s="14"/>
       <c r="H115" s="14"/>
       <c r="I115" s="14"/>
       <c r="J115" s="14"/>
@@ -3407,9 +3972,9 @@
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="28"/>
-      <c r="G116" s="28"/>
+      <c r="E116" s="19"/>
+      <c r="F116" s="19"/>
+      <c r="G116" s="14"/>
       <c r="H116" s="14"/>
       <c r="I116" s="14"/>
       <c r="J116" s="14"/>
@@ -3427,9 +3992,9 @@
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="28"/>
-      <c r="G117" s="28"/>
+      <c r="E117" s="19"/>
+      <c r="F117" s="19"/>
+      <c r="G117" s="14"/>
       <c r="H117" s="14"/>
       <c r="I117" s="14"/>
       <c r="J117" s="14"/>
@@ -3453,13 +4018,27 @@
       <c r="D118" s="5">
         <v>2.95</v>
       </c>
-      <c r="E118" s="14"/>
-      <c r="F118" s="28"/>
-      <c r="G118" s="28"/>
-      <c r="H118" s="14"/>
-      <c r="I118" s="14"/>
-      <c r="J118" s="14"/>
-      <c r="K118" s="14"/>
+      <c r="E118" s="19">
+        <v>475232.53</v>
+      </c>
+      <c r="F118" s="19">
+        <v>539954.03700000001</v>
+      </c>
+      <c r="G118" s="14">
+        <v>1.3420000000000001</v>
+      </c>
+      <c r="H118" s="14">
+        <v>5.3159999999999998</v>
+      </c>
+      <c r="I118" s="14">
+        <v>1.3939999999999999</v>
+      </c>
+      <c r="J118" s="14">
+        <v>1.621</v>
+      </c>
+      <c r="K118" s="14">
+        <v>1.548</v>
+      </c>
       <c r="L118" s="14"/>
       <c r="M118" s="14"/>
       <c r="N118" s="14"/>
@@ -3479,13 +4058,27 @@
       <c r="D119" s="5">
         <v>2.9200000000000004</v>
       </c>
-      <c r="E119" s="14"/>
-      <c r="F119" s="28"/>
-      <c r="G119" s="28"/>
-      <c r="H119" s="14"/>
-      <c r="I119" s="14"/>
-      <c r="J119" s="14"/>
-      <c r="K119" s="14"/>
+      <c r="E119" s="19">
+        <v>475232.61300000001</v>
+      </c>
+      <c r="F119" s="19">
+        <v>539954.03300000005</v>
+      </c>
+      <c r="G119" s="14">
+        <v>1.1259999999999999</v>
+      </c>
+      <c r="H119" s="14">
+        <v>4.8949999999999996</v>
+      </c>
+      <c r="I119" s="14">
+        <v>1.419</v>
+      </c>
+      <c r="J119" s="14">
+        <v>1.514</v>
+      </c>
+      <c r="K119" s="14">
+        <v>1.238</v>
+      </c>
       <c r="L119" s="14"/>
       <c r="M119" s="14"/>
       <c r="N119" s="14"/>
@@ -3499,9 +4092,9 @@
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="28"/>
-      <c r="G120" s="28"/>
+      <c r="E120" s="19"/>
+      <c r="F120" s="19"/>
+      <c r="G120" s="14"/>
       <c r="H120" s="14"/>
       <c r="I120" s="14"/>
       <c r="J120" s="14"/>
@@ -3519,9 +4112,9 @@
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="28"/>
-      <c r="G121" s="28"/>
+      <c r="E121" s="19"/>
+      <c r="F121" s="19"/>
+      <c r="G121" s="14"/>
       <c r="H121" s="14"/>
       <c r="I121" s="14"/>
       <c r="J121" s="14"/>
@@ -3539,9 +4132,9 @@
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="28"/>
-      <c r="G122" s="28"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="19"/>
+      <c r="G122" s="14"/>
       <c r="H122" s="14"/>
       <c r="I122" s="14"/>
       <c r="J122" s="14"/>
@@ -3556,31 +4149,31 @@
       <c r="A124" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B124" s="18" t="s">
+      <c r="B124" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C124" s="19"/>
-      <c r="D124" s="20"/>
-      <c r="E124" s="2" t="s">
+      <c r="C124" s="25"/>
+      <c r="D124" s="26"/>
+      <c r="E124" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124" s="21"/>
+      <c r="G124" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H124" s="21"/>
+      <c r="I124" s="21"/>
+      <c r="J124" s="21"/>
+      <c r="K124" s="21"/>
+      <c r="L124" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="M124" s="21"/>
+      <c r="N124" s="21"/>
+      <c r="O124" s="21"/>
+      <c r="P124" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F124" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="25"/>
-      <c r="H124" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I124" s="25"/>
-      <c r="J124" s="25"/>
-      <c r="K124" s="25"/>
-      <c r="L124" s="25"/>
-      <c r="M124" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="N124" s="25"/>
-      <c r="O124" s="25"/>
-      <c r="P124" s="25"/>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
@@ -3595,41 +4188,41 @@
       <c r="D125" s="2">
         <v>28</v>
       </c>
-      <c r="E125" s="21" t="s">
+      <c r="E125" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G125" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H125" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I125" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J125" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K125" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L125" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M125" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N125" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="O125" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="P125" s="27" t="s">
         <v>9</v>
-      </c>
-      <c r="F125" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G125" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="H125" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="I125" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="J125" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K125" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="L125" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="M125" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="N125" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="O125" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="P125" s="27" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.3">
@@ -3645,18 +4238,32 @@
       <c r="D126" s="5">
         <v>0.83999999999999986</v>
       </c>
-      <c r="E126" s="22"/>
-      <c r="F126" s="28"/>
-      <c r="G126" s="28"/>
-      <c r="H126" s="14"/>
-      <c r="I126" s="14"/>
-      <c r="J126" s="14"/>
-      <c r="K126" s="14"/>
+      <c r="E126" s="19">
+        <v>475238.40600000002</v>
+      </c>
+      <c r="F126" s="19">
+        <v>539968.59199999995</v>
+      </c>
+      <c r="G126" s="14">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="H126" s="14">
+        <v>2.5289999999999999</v>
+      </c>
+      <c r="I126" s="14">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="J126" s="14">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="K126" s="14">
+        <v>0.27</v>
+      </c>
       <c r="L126" s="14"/>
       <c r="M126" s="14"/>
       <c r="N126" s="14"/>
       <c r="O126" s="14"/>
-      <c r="P126" s="14"/>
+      <c r="P126" s="28"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" s="7">
@@ -3665,9 +4272,9 @@
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
-      <c r="E127" s="22"/>
-      <c r="F127" s="28"/>
-      <c r="G127" s="28"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="19"/>
+      <c r="G127" s="14"/>
       <c r="H127" s="14"/>
       <c r="I127" s="14"/>
       <c r="J127" s="14"/>
@@ -3676,7 +4283,7 @@
       <c r="M127" s="14"/>
       <c r="N127" s="14"/>
       <c r="O127" s="14"/>
-      <c r="P127" s="14"/>
+      <c r="P127" s="28"/>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
@@ -3691,18 +4298,32 @@
       <c r="D128" s="5">
         <v>1.1199999999999999</v>
       </c>
-      <c r="E128" s="22"/>
-      <c r="F128" s="28"/>
-      <c r="G128" s="28"/>
-      <c r="H128" s="14"/>
-      <c r="I128" s="14"/>
-      <c r="J128" s="14"/>
-      <c r="K128" s="14"/>
+      <c r="E128" s="19">
+        <v>475238.85600000003</v>
+      </c>
+      <c r="F128" s="19">
+        <v>539968.78</v>
+      </c>
+      <c r="G128" s="14">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="H128" s="14">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="I128" s="14">
+        <v>0.748</v>
+      </c>
+      <c r="J128" s="14">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="K128" s="14">
+        <v>0.435</v>
+      </c>
       <c r="L128" s="14"/>
       <c r="M128" s="14"/>
       <c r="N128" s="14"/>
       <c r="O128" s="14"/>
-      <c r="P128" s="14"/>
+      <c r="P128" s="28"/>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
@@ -3711,9 +4332,9 @@
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
-      <c r="E129" s="22"/>
-      <c r="F129" s="28"/>
-      <c r="G129" s="28"/>
+      <c r="E129" s="19"/>
+      <c r="F129" s="19"/>
+      <c r="G129" s="14"/>
       <c r="H129" s="14"/>
       <c r="I129" s="14"/>
       <c r="J129" s="14"/>
@@ -3722,7 +4343,7 @@
       <c r="M129" s="14"/>
       <c r="N129" s="14"/>
       <c r="O129" s="14"/>
-      <c r="P129" s="14"/>
+      <c r="P129" s="28"/>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
@@ -3731,9 +4352,9 @@
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
-      <c r="E130" s="22"/>
-      <c r="F130" s="28"/>
-      <c r="G130" s="28"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="19"/>
+      <c r="G130" s="14"/>
       <c r="H130" s="14"/>
       <c r="I130" s="14"/>
       <c r="J130" s="14"/>
@@ -3742,7 +4363,7 @@
       <c r="M130" s="14"/>
       <c r="N130" s="14"/>
       <c r="O130" s="14"/>
-      <c r="P130" s="14"/>
+      <c r="P130" s="28"/>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" s="8">
@@ -3757,18 +4378,32 @@
       <c r="D131" s="5">
         <v>0.59000000000000008</v>
       </c>
-      <c r="E131" s="22"/>
-      <c r="F131" s="28"/>
-      <c r="G131" s="28"/>
-      <c r="H131" s="14"/>
-      <c r="I131" s="14"/>
-      <c r="J131" s="14"/>
-      <c r="K131" s="14"/>
+      <c r="E131" s="19">
+        <v>475238.49</v>
+      </c>
+      <c r="F131" s="19">
+        <v>539968.65899999999</v>
+      </c>
+      <c r="G131" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H131" s="14">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="I131" s="14">
+        <v>0.221</v>
+      </c>
+      <c r="J131" s="14">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="K131" s="14">
+        <v>1.7999999999999999E-2</v>
+      </c>
       <c r="L131" s="14"/>
       <c r="M131" s="14"/>
       <c r="N131" s="14"/>
       <c r="O131" s="14"/>
-      <c r="P131" s="14"/>
+      <c r="P131" s="28"/>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" s="8">
@@ -3777,9 +4412,9 @@
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
-      <c r="E132" s="22"/>
-      <c r="F132" s="28"/>
-      <c r="G132" s="28"/>
+      <c r="E132" s="19"/>
+      <c r="F132" s="19"/>
+      <c r="G132" s="14"/>
       <c r="H132" s="14"/>
       <c r="I132" s="14"/>
       <c r="J132" s="14"/>
@@ -3788,7 +4423,7 @@
       <c r="M132" s="14"/>
       <c r="N132" s="14"/>
       <c r="O132" s="14"/>
-      <c r="P132" s="14"/>
+      <c r="P132" s="28"/>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" s="8">
@@ -3803,18 +4438,32 @@
       <c r="D133" s="5">
         <v>0.65999999999999992</v>
       </c>
-      <c r="E133" s="22"/>
-      <c r="F133" s="28"/>
-      <c r="G133" s="28"/>
-      <c r="H133" s="14"/>
-      <c r="I133" s="14"/>
-      <c r="J133" s="14"/>
-      <c r="K133" s="14"/>
+      <c r="E133" s="19">
+        <v>475238.50599999999</v>
+      </c>
+      <c r="F133" s="19">
+        <v>539968.52300000004</v>
+      </c>
+      <c r="G133" s="14">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H133" s="14">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="I133" s="14">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="J133" s="14">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="K133" s="14">
+        <v>0.28299999999999997</v>
+      </c>
       <c r="L133" s="14"/>
       <c r="M133" s="14"/>
       <c r="N133" s="14"/>
       <c r="O133" s="14"/>
-      <c r="P133" s="14"/>
+      <c r="P133" s="28"/>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134" s="8">
@@ -3823,9 +4472,9 @@
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
-      <c r="E134" s="22"/>
-      <c r="F134" s="28"/>
-      <c r="G134" s="28"/>
+      <c r="E134" s="19"/>
+      <c r="F134" s="19"/>
+      <c r="G134" s="14"/>
       <c r="H134" s="14"/>
       <c r="I134" s="14"/>
       <c r="J134" s="14"/>
@@ -3834,7 +4483,7 @@
       <c r="M134" s="14"/>
       <c r="N134" s="14"/>
       <c r="O134" s="14"/>
-      <c r="P134" s="14"/>
+      <c r="P134" s="28"/>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" s="6">
@@ -3843,9 +4492,9 @@
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
-      <c r="E135" s="22"/>
-      <c r="F135" s="28"/>
-      <c r="G135" s="28"/>
+      <c r="E135" s="19"/>
+      <c r="F135" s="19"/>
+      <c r="G135" s="14"/>
       <c r="H135" s="14"/>
       <c r="I135" s="14"/>
       <c r="J135" s="14"/>
@@ -3854,7 +4503,7 @@
       <c r="M135" s="14"/>
       <c r="N135" s="14"/>
       <c r="O135" s="14"/>
-      <c r="P135" s="14"/>
+      <c r="P135" s="28"/>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" s="6">
@@ -3863,9 +4512,9 @@
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
-      <c r="E136" s="22"/>
-      <c r="F136" s="28"/>
-      <c r="G136" s="28"/>
+      <c r="E136" s="19"/>
+      <c r="F136" s="19"/>
+      <c r="G136" s="14"/>
       <c r="H136" s="14"/>
       <c r="I136" s="14"/>
       <c r="J136" s="14"/>
@@ -3874,7 +4523,7 @@
       <c r="M136" s="14"/>
       <c r="N136" s="14"/>
       <c r="O136" s="14"/>
-      <c r="P136" s="14"/>
+      <c r="P136" s="28"/>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137" s="6">
@@ -3883,9 +4532,9 @@
       <c r="B137" s="16"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
-      <c r="E137" s="22"/>
-      <c r="F137" s="28"/>
-      <c r="G137" s="28"/>
+      <c r="E137" s="19"/>
+      <c r="F137" s="19"/>
+      <c r="G137" s="14"/>
       <c r="H137" s="14"/>
       <c r="I137" s="14"/>
       <c r="J137" s="14"/>
@@ -3894,7 +4543,7 @@
       <c r="M137" s="14"/>
       <c r="N137" s="14"/>
       <c r="O137" s="14"/>
-      <c r="P137" s="14"/>
+      <c r="P137" s="28"/>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" s="9">
@@ -3903,9 +4552,9 @@
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
-      <c r="E138" s="22"/>
-      <c r="F138" s="28"/>
-      <c r="G138" s="28"/>
+      <c r="E138" s="19"/>
+      <c r="F138" s="19"/>
+      <c r="G138" s="14"/>
       <c r="H138" s="14"/>
       <c r="I138" s="14"/>
       <c r="J138" s="14"/>
@@ -3914,7 +4563,7 @@
       <c r="M138" s="14"/>
       <c r="N138" s="14"/>
       <c r="O138" s="14"/>
-      <c r="P138" s="14"/>
+      <c r="P138" s="28"/>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139" s="9">
@@ -3923,9 +4572,9 @@
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
-      <c r="E139" s="22"/>
-      <c r="F139" s="28"/>
-      <c r="G139" s="28"/>
+      <c r="E139" s="19"/>
+      <c r="F139" s="19"/>
+      <c r="G139" s="14"/>
       <c r="H139" s="14"/>
       <c r="I139" s="14"/>
       <c r="J139" s="14"/>
@@ -3934,7 +4583,7 @@
       <c r="M139" s="14"/>
       <c r="N139" s="14"/>
       <c r="O139" s="14"/>
-      <c r="P139" s="14"/>
+      <c r="P139" s="28"/>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" s="9">
@@ -3943,9 +4592,9 @@
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
-      <c r="E140" s="22"/>
-      <c r="F140" s="28"/>
-      <c r="G140" s="28"/>
+      <c r="E140" s="19"/>
+      <c r="F140" s="19"/>
+      <c r="G140" s="14"/>
       <c r="H140" s="14"/>
       <c r="I140" s="14"/>
       <c r="J140" s="14"/>
@@ -3954,7 +4603,7 @@
       <c r="M140" s="14"/>
       <c r="N140" s="14"/>
       <c r="O140" s="14"/>
-      <c r="P140" s="14"/>
+      <c r="P140" s="28"/>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141" s="9">
@@ -3963,9 +4612,9 @@
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
-      <c r="E141" s="22"/>
-      <c r="F141" s="28"/>
-      <c r="G141" s="28"/>
+      <c r="E141" s="19"/>
+      <c r="F141" s="19"/>
+      <c r="G141" s="14"/>
       <c r="H141" s="14"/>
       <c r="I141" s="14"/>
       <c r="J141" s="14"/>
@@ -3974,18 +4623,18 @@
       <c r="M141" s="14"/>
       <c r="N141" s="14"/>
       <c r="O141" s="14"/>
-      <c r="P141" s="14"/>
+      <c r="P141" s="28"/>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A142" s="17" t="s">
+      <c r="A142" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B142" s="17"/>
-      <c r="C142" s="17"/>
-      <c r="D142" s="17"/>
-      <c r="E142" s="22"/>
-      <c r="F142" s="28"/>
-      <c r="G142" s="28"/>
+      <c r="B142" s="24"/>
+      <c r="C142" s="24"/>
+      <c r="D142" s="24"/>
+      <c r="E142" s="19"/>
+      <c r="F142" s="19"/>
+      <c r="G142" s="14"/>
       <c r="H142" s="14"/>
       <c r="I142" s="14"/>
       <c r="J142" s="14"/>
@@ -3994,7 +4643,7 @@
       <c r="M142" s="14"/>
       <c r="N142" s="14"/>
       <c r="O142" s="14"/>
-      <c r="P142" s="14"/>
+      <c r="P142" s="28"/>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143" s="7">
@@ -4009,18 +4658,32 @@
       <c r="D143" s="5">
         <v>0.66999999999999993</v>
       </c>
-      <c r="E143" s="22"/>
-      <c r="F143" s="28"/>
-      <c r="G143" s="28"/>
-      <c r="H143" s="14"/>
-      <c r="I143" s="14"/>
-      <c r="J143" s="14"/>
-      <c r="K143" s="14"/>
+      <c r="E143" s="19">
+        <v>475238.25</v>
+      </c>
+      <c r="F143" s="19">
+        <v>539968.48400000005</v>
+      </c>
+      <c r="G143" s="19">
+        <v>0.15</v>
+      </c>
+      <c r="H143" s="14">
+        <v>1.8480000000000001</v>
+      </c>
+      <c r="I143" s="14">
+        <v>0.62</v>
+      </c>
+      <c r="J143" s="14">
+        <v>0.48</v>
+      </c>
+      <c r="K143" s="14">
+        <v>0.40699999999999997</v>
+      </c>
       <c r="L143" s="14"/>
       <c r="M143" s="14"/>
       <c r="N143" s="14"/>
       <c r="O143" s="14"/>
-      <c r="P143" s="14"/>
+      <c r="P143" s="28"/>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
@@ -4035,9 +4698,9 @@
       <c r="D144" s="5">
         <v>0.69</v>
       </c>
-      <c r="E144" s="22"/>
-      <c r="F144" s="28"/>
-      <c r="G144" s="28"/>
+      <c r="E144" s="19"/>
+      <c r="F144" s="19"/>
+      <c r="G144" s="14"/>
       <c r="H144" s="14"/>
       <c r="I144" s="14"/>
       <c r="J144" s="14"/>
@@ -4045,8 +4708,10 @@
       <c r="L144" s="14"/>
       <c r="M144" s="14"/>
       <c r="N144" s="14"/>
-      <c r="O144" s="14"/>
-      <c r="P144" s="14"/>
+      <c r="O144" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="P144" s="28"/>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145" s="8">
@@ -4061,18 +4726,32 @@
       <c r="D145" s="5">
         <v>0.83999999999999986</v>
       </c>
-      <c r="E145" s="22"/>
-      <c r="F145" s="28"/>
-      <c r="G145" s="28"/>
-      <c r="H145" s="14"/>
-      <c r="I145" s="14"/>
-      <c r="J145" s="14"/>
-      <c r="K145" s="14"/>
+      <c r="E145" s="19">
+        <v>475238.01299999998</v>
+      </c>
+      <c r="F145" s="19">
+        <v>539968.95900000003</v>
+      </c>
+      <c r="G145" s="14">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H145" s="14">
+        <v>3.4289999999999998</v>
+      </c>
+      <c r="I145" s="14">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="J145" s="14">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="K145" s="14">
+        <v>0.23100000000000001</v>
+      </c>
       <c r="L145" s="14"/>
       <c r="M145" s="14"/>
       <c r="N145" s="14"/>
       <c r="O145" s="14"/>
-      <c r="P145" s="14"/>
+      <c r="P145" s="28"/>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146" s="8">
@@ -4081,9 +4760,9 @@
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
-      <c r="E146" s="22"/>
-      <c r="F146" s="28"/>
-      <c r="G146" s="28"/>
+      <c r="E146" s="19"/>
+      <c r="F146" s="19"/>
+      <c r="G146" s="14"/>
       <c r="H146" s="14"/>
       <c r="I146" s="14"/>
       <c r="J146" s="14"/>
@@ -4092,7 +4771,7 @@
       <c r="M146" s="14"/>
       <c r="N146" s="14"/>
       <c r="O146" s="14"/>
-      <c r="P146" s="14"/>
+      <c r="P146" s="28"/>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147" s="8">
@@ -4107,18 +4786,32 @@
       <c r="D147" s="5">
         <v>0.87999999999999989</v>
       </c>
-      <c r="E147" s="22"/>
-      <c r="F147" s="28"/>
-      <c r="G147" s="28"/>
-      <c r="H147" s="14"/>
-      <c r="I147" s="14"/>
-      <c r="J147" s="14"/>
-      <c r="K147" s="14"/>
+      <c r="E147" s="19">
+        <v>475238.72100000002</v>
+      </c>
+      <c r="F147" s="19">
+        <v>539968.64399999997</v>
+      </c>
+      <c r="G147" s="14">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="H147" s="14">
+        <v>1.522</v>
+      </c>
+      <c r="I147" s="14">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="J147" s="14">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="K147" s="14">
+        <v>4.9000000000000002E-2</v>
+      </c>
       <c r="L147" s="14"/>
       <c r="M147" s="14"/>
       <c r="N147" s="14"/>
       <c r="O147" s="14"/>
-      <c r="P147" s="14"/>
+      <c r="P147" s="28"/>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148" s="8">
@@ -4133,18 +4826,32 @@
       <c r="D148" s="5">
         <v>0.60000000000000009</v>
       </c>
-      <c r="E148" s="22"/>
-      <c r="F148" s="28"/>
-      <c r="G148" s="28"/>
-      <c r="H148" s="14"/>
-      <c r="I148" s="14"/>
-      <c r="J148" s="14"/>
-      <c r="K148" s="14"/>
+      <c r="E148" s="19">
+        <v>475238.45600000001</v>
+      </c>
+      <c r="F148" s="19">
+        <v>539968.54599999997</v>
+      </c>
+      <c r="G148" s="14">
+        <v>0.01</v>
+      </c>
+      <c r="H148" s="14">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="I148" s="14">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="J148" s="14">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="K148" s="14">
+        <v>7.2999999999999995E-2</v>
+      </c>
       <c r="L148" s="14"/>
       <c r="M148" s="14"/>
       <c r="N148" s="14"/>
       <c r="O148" s="14"/>
-      <c r="P148" s="14"/>
+      <c r="P148" s="28"/>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149" s="9">
@@ -4159,20 +4866,34 @@
       <c r="D149" s="5">
         <v>0.47000000000000003</v>
       </c>
-      <c r="E149" s="22"/>
-      <c r="F149" s="28"/>
-      <c r="G149" s="28"/>
-      <c r="H149" s="14"/>
-      <c r="I149" s="14"/>
-      <c r="J149" s="14"/>
-      <c r="K149" s="14"/>
+      <c r="E149" s="19">
+        <v>475238.31800000003</v>
+      </c>
+      <c r="F149" s="19">
+        <v>539968.67799999996</v>
+      </c>
+      <c r="G149" s="14">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H149" s="14">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="I149" s="14">
+        <v>0.246</v>
+      </c>
+      <c r="J149" s="14">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="K149" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
       <c r="L149" s="14"/>
       <c r="M149" s="14"/>
       <c r="N149" s="14"/>
       <c r="O149" s="14"/>
-      <c r="P149" s="14"/>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P149" s="28"/>
+    </row>
+    <row r="150" spans="1:16" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="9">
         <v>135</v>
       </c>
@@ -4185,41 +4906,55 @@
       <c r="D150" s="5">
         <v>0.7</v>
       </c>
-      <c r="E150" s="23"/>
-      <c r="F150" s="28"/>
-      <c r="G150" s="28"/>
-      <c r="H150" s="14"/>
-      <c r="I150" s="14"/>
-      <c r="J150" s="14"/>
-      <c r="K150" s="14"/>
+      <c r="E150" s="19">
+        <v>475238.52500000002</v>
+      </c>
+      <c r="F150" s="19">
+        <v>539968.40599999996</v>
+      </c>
+      <c r="G150" s="14">
+        <v>1E-3</v>
+      </c>
+      <c r="H150" s="14">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="I150" s="14">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="J150" s="14">
+        <v>0.02</v>
+      </c>
+      <c r="K150" s="14">
+        <v>4.3999999999999997E-2</v>
+      </c>
       <c r="L150" s="14"/>
       <c r="M150" s="14"/>
       <c r="N150" s="14"/>
       <c r="O150" s="14"/>
-      <c r="P150" s="14"/>
+      <c r="P150" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="F124:G124"/>
-    <mergeCell ref="H124:L124"/>
-    <mergeCell ref="M124:P124"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="H66:L66"/>
-    <mergeCell ref="M66:P66"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="H104:L104"/>
-    <mergeCell ref="M104:P104"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="P125:P150"/>
     <mergeCell ref="A87:D87"/>
     <mergeCell ref="B104:D104"/>
     <mergeCell ref="B124:D124"/>
     <mergeCell ref="A142:D142"/>
-    <mergeCell ref="E125:E150"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="E124:F124"/>
+    <mergeCell ref="G124:K124"/>
+    <mergeCell ref="L124:O124"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="G66:K66"/>
+    <mergeCell ref="L66:O66"/>
+    <mergeCell ref="E104:F104"/>
+    <mergeCell ref="G104:K104"/>
+    <mergeCell ref="L104:O104"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
